--- a/GovData/water/Planning_Dams_Erbil_City.xlsx
+++ b/GovData/water/Planning_Dams_Erbil_City.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wshyar/Documents/Proj/CCDH/GovData/water/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0719F9-5A46-D84C-B176-AC195AAF7FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>Site Name</t>
   </si>
@@ -115,9 +121,6 @@
     <t>Lesser Zab</t>
   </si>
   <si>
-    <t>Earth fill</t>
-  </si>
-  <si>
     <t>Earth fill with clay core</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t>Gravity Concrete Dam</t>
   </si>
   <si>
-    <t>Earth Fill Dam</t>
-  </si>
-  <si>
     <t>Reinforced Concrete Weir</t>
   </si>
   <si>
@@ -139,9 +139,6 @@
     <t>Rockfill with Claycore</t>
   </si>
   <si>
-    <t>Earth fill Dam</t>
-  </si>
-  <si>
     <t>Gravity Concrete (R.Concrete)</t>
   </si>
   <si>
@@ -155,13 +152,16 @@
   </si>
   <si>
     <t>Rock fill</t>
+  </si>
+  <si>
+    <t>Earth Fill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +224,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -268,7 +276,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -302,6 +310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -336,9 +345,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,14 +521,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -540,13 +557,13 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>63.55</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -554,13 +571,13 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -568,13 +585,13 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -582,13 +599,13 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -596,13 +613,13 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>20.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -610,13 +627,13 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>10.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -624,13 +641,13 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -638,13 +655,13 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -652,13 +669,13 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -666,13 +683,13 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>41.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -680,13 +697,13 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D12">
         <v>16.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -694,13 +711,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>20.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -708,13 +725,13 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -722,13 +739,13 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>9.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -736,13 +753,13 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>10.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -750,13 +767,13 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>12.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -764,13 +781,13 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>11.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -778,13 +795,13 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>9.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -792,13 +809,13 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -806,13 +823,13 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -820,13 +837,13 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -834,13 +851,13 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -848,13 +865,13 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -862,13 +879,13 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -876,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -890,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D27">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -904,7 +921,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D28">
         <v>21</v>
